--- a/_templates/Edge-Barcode-Scanner-Info/Jobs_Meta_Information_de.xlsx
+++ b/_templates/Edge-Barcode-Scanner-Info/Jobs_Meta_Information_de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Operational_Logistics_Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Edge-Barcode-Scanner-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4499243-01D2-0E42-A46E-822CC50BA0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D8DFB-4519-2945-901D-14C2B895FF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46520" yWindow="-4060" windowWidth="36780" windowHeight="28080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21420" yWindow="6580" windowWidth="29780" windowHeight="22220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D869"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -483,9 +483,9 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>5684358</v>
+        <v>5684714</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -497,9 +497,9 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>5684376</v>
+        <v>5684441</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
